--- a/src/test/resources/testdata/seller11.xlsx
+++ b/src/test/resources/testdata/seller11.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="210">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,37 @@
   </si>
   <si>
     <t>A18SNFJ4PPXGKO</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,12 +683,32 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,6 +742,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,22 +1036,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1062,30 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1090,6 +1174,30 @@
       <c r="B13" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>29.99</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1250,6 +1358,30 @@
       <c r="B33" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="H33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="I33" t="n" s="0">
+        <v>31.65</v>
+      </c>
+      <c r="J33" t="n" s="0">
+        <v>31.65</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -1298,6 +1430,30 @@
       <c r="B39" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="H39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="I39" t="n" s="0">
+        <v>30.15</v>
+      </c>
+      <c r="J39" t="n" s="18">
+        <v>30.1</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1314,6 +1470,30 @@
       <c r="B41" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="I41" t="n" s="0">
+        <v>27.88</v>
+      </c>
+      <c r="J41" t="n" s="0">
+        <v>27.88</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1346,6 +1526,30 @@
       <c r="B45" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="H45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>30.4</v>
+      </c>
+      <c r="J45" t="n" s="0">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1370,6 +1574,30 @@
       <c r="B48" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="G48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="H48" t="n" s="0">
+        <v>19.8</v>
+      </c>
+      <c r="I48" t="n" s="13">
+        <v>19.79</v>
+      </c>
+      <c r="J48" t="n" s="0">
+        <v>19.79</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -1426,6 +1654,30 @@
       <c r="B55" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="I55" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="J55" t="n" s="0">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -1538,6 +1790,30 @@
       <c r="B69" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="D69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="E69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="F69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="G69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="H69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="I69" t="n" s="0">
+        <v>18.47</v>
+      </c>
+      <c r="J69" t="n" s="0">
+        <v>18.47</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -1554,6 +1830,30 @@
       <c r="B71" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="E71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="F71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="G71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="H71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="I71" t="n" s="0">
+        <v>45.8</v>
+      </c>
+      <c r="J71" t="n" s="0">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -1602,6 +1902,30 @@
       <c r="B77" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="I77" t="n" s="0">
+        <v>19.62</v>
+      </c>
+      <c r="J77" t="n" s="0">
+        <v>19.62</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -1714,6 +2038,30 @@
       <c r="B91" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C91" t="n" s="0">
+        <v>22.15</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>22.15</v>
+      </c>
+      <c r="E91" t="n" s="9">
+        <v>22.2</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="I91" t="n" s="14">
+        <v>22.15</v>
+      </c>
+      <c r="J91" t="n" s="19">
+        <v>22.19</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -1722,6 +2070,30 @@
       <c r="B92" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="D92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="E92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="F92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="G92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="H92" t="n" s="0">
+        <v>21.26</v>
+      </c>
+      <c r="I92" t="n" s="15">
+        <v>21.2</v>
+      </c>
+      <c r="J92" t="n" s="20">
+        <v>21.15</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -1730,6 +2102,30 @@
       <c r="B93" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C93" t="n" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="F93" t="n" s="11">
+        <v>21.95</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="I93" t="n" s="16">
+        <v>22.0</v>
+      </c>
+      <c r="J93" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -1866,6 +2262,30 @@
       <c r="B110" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C110" t="n" s="0">
+        <v>30.16</v>
+      </c>
+      <c r="D110" t="n" s="8">
+        <v>31.66</v>
+      </c>
+      <c r="E110" t="n" s="10">
+        <v>30.16</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>30.16</v>
+      </c>
+      <c r="G110" t="n" s="0">
+        <v>30.16</v>
+      </c>
+      <c r="H110" t="n" s="12">
+        <v>29.49</v>
+      </c>
+      <c r="I110" t="n" s="17">
+        <v>31.66</v>
+      </c>
+      <c r="J110" t="n" s="21">
+        <v>30.1</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
@@ -2349,7 +2769,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +2777,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +2801,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +2809,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +2817,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +2825,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +2833,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +2841,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +2849,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +2857,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +2873,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +2897,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +2913,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +2921,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +2929,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +2937,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +2961,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +2969,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +2977,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +3001,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
